--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723638B9-F9FE-47FC-A320-1FE825828160}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29E147-3318-4EE4-8CD0-D42529CA01D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
+    <workbookView xWindow="9636" yWindow="324" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>levelID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>Pictures/Game/Map/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA73EB-D29B-47B0-9B5C-C8D0A958C19A}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -501,7 +505,7 @@
     <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +530,11 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29E147-3318-4EE4-8CD0-D42529CA01D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45D85F3-766C-40C6-A44F-B982B65CB692}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="324" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
+    <workbookView xWindow="1008" yWindow="1008" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子弹id</t>
+    <t>按钮位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA73EB-D29B-47B0-9B5C-C8D0A958C19A}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
     <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +533,9 @@
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45D85F3-766C-40C6-A44F-B982B65CB692}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA309A-6559-4CC2-ADF7-13B8B50D8822}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="1008" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
+    <workbookView xWindow="8952" yWindow="648" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>levelID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,61 @@
   </si>
   <si>
     <t>按钮位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pictures/Game/Map/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pictures/Game/Map/3</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA73EB-D29B-47B0-9B5C-C8D0A958C19A}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,6 +616,58 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FA309A-6559-4CC2-ADF7-13B8B50D8822}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D768CF-BD3D-4595-9271-B709E235DAE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8952" yWindow="648" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>levelID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,22 @@
   </si>
   <si>
     <t>这是3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pictures/Game/Map/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA73EB-D29B-47B0-9B5C-C8D0A958C19A}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -668,6 +684,32 @@
         <v>25</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D768CF-BD3D-4595-9271-B709E235DAE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1CB84A-809A-4675-8BA6-B68203E54069}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8952" yWindow="648" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pictures/Game/Map/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,13 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pictures/Game/Map/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pictures/Game/Map/3</t>
-  </si>
-  <si>
     <t>1,2,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,8 +151,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pictures/Game/Map/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Game/Map/Map_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game/Map/Map_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game/Map/Map_3</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_4</t>
   </si>
 </sst>
 </file>
@@ -561,7 +560,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,7 +571,7 @@
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -626,7 +625,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -634,74 +633,74 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>34</v>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1CB84A-809A-4675-8BA6-B68203E54069}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C6A88-1D23-4014-A0AD-873DD9555086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13392" windowHeight="11340" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
   <si>
     <t>levelID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,334 @@
   </si>
   <si>
     <t>Game/Map/Map_4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>第5关</t>
+  </si>
+  <si>
+    <t>第6关</t>
+  </si>
+  <si>
+    <t>第7关</t>
+  </si>
+  <si>
+    <t>第8关</t>
+  </si>
+  <si>
+    <t>第9关</t>
+  </si>
+  <si>
+    <t>第10关</t>
+  </si>
+  <si>
+    <t>第11关</t>
+  </si>
+  <si>
+    <t>第12关</t>
+  </si>
+  <si>
+    <t>第13关</t>
+  </si>
+  <si>
+    <t>第14关</t>
+  </si>
+  <si>
+    <t>第15关</t>
+  </si>
+  <si>
+    <t>第16关</t>
+  </si>
+  <si>
+    <t>第17关</t>
+  </si>
+  <si>
+    <t>第18关</t>
+  </si>
+  <si>
+    <t>第19关</t>
+  </si>
+  <si>
+    <t>第20关</t>
+  </si>
+  <si>
+    <t>第21关</t>
+  </si>
+  <si>
+    <t>第22关</t>
+  </si>
+  <si>
+    <t>第23关</t>
+  </si>
+  <si>
+    <t>第24关</t>
+  </si>
+  <si>
+    <t>第25关</t>
+  </si>
+  <si>
+    <t>第26关</t>
+  </si>
+  <si>
+    <t>第27关</t>
+  </si>
+  <si>
+    <t>第28关</t>
+  </si>
+  <si>
+    <t>第29关</t>
+  </si>
+  <si>
+    <t>第30关</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是5</t>
+  </si>
+  <si>
+    <t>这是6</t>
+  </si>
+  <si>
+    <t>这是7</t>
+  </si>
+  <si>
+    <t>这是8</t>
+  </si>
+  <si>
+    <t>这是9</t>
+  </si>
+  <si>
+    <t>这是10</t>
+  </si>
+  <si>
+    <t>这是11</t>
+  </si>
+  <si>
+    <t>这是12</t>
+  </si>
+  <si>
+    <t>这是13</t>
+  </si>
+  <si>
+    <t>这是14</t>
+  </si>
+  <si>
+    <t>这是15</t>
+  </si>
+  <si>
+    <t>这是16</t>
+  </si>
+  <si>
+    <t>这是17</t>
+  </si>
+  <si>
+    <t>这是18</t>
+  </si>
+  <si>
+    <t>这是19</t>
+  </si>
+  <si>
+    <t>这是20</t>
+  </si>
+  <si>
+    <t>这是21</t>
+  </si>
+  <si>
+    <t>这是22</t>
+  </si>
+  <si>
+    <t>这是23</t>
+  </si>
+  <si>
+    <t>这是24</t>
+  </si>
+  <si>
+    <t>这是25</t>
+  </si>
+  <si>
+    <t>这是26</t>
+  </si>
+  <si>
+    <t>这是27</t>
+  </si>
+  <si>
+    <t>这是28</t>
+  </si>
+  <si>
+    <t>这是29</t>
+  </si>
+  <si>
+    <t>这是30</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_5</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_6</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_7</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_8</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_9</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_10</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_11</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_12</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_13</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_14</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_15</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_16</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_17</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_18</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_19</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_20</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_21</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_22</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_23</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_24</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_25</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_26</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_27</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_28</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_29</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_30</t>
   </si>
 </sst>
 </file>
@@ -557,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA73EB-D29B-47B0-9B5C-C8D0A958C19A}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -709,6 +1037,682 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9274891-CD18-4518-AAFB-821E75117705}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF99E32-5A7D-46DC-951B-A33EA5AD6256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
@@ -71,43 +71,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>levelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game/Map/Map_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game/Map/Map_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game/Map/Map_3</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,433 +219,329 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game/Map/Map_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game/Map/Map_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game/Map/Map_3</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>Game/Map/Map_5</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_6</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_7</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_8</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_9</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_10</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_11</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_12</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_13</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_14</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_15</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_16</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_17</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_18</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_19</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_20</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_21</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_22</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_23</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_24</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_25</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_26</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_27</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_28</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_29</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_30</t>
+  </si>
+  <si>
+    <t>南港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，尊贵的战士！作为陛下的将军，国王需要你的帮助。南港居民报告称受到拦路强盗和其他不法歹徒的攻击。请你部署方案，支援城镇防御！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干得好！你的调查表明，这并非单纯出没在港口的土匪，而是哥布林族有组织的攻击！现在，我们必须迅速建立起有效的防御工事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕格拉斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银橡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数日行军之后，要塞的驻军承受了好几轮攻击，探子传来报告，一波更加庞大的敌军正在逼近。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城堡之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们抵达了首都利尼威亚，决战的时刻就要来临！我们逼定誓死保卫南门城墙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰风隘口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这群山之中，没有比冰风隘口更寒冷的地方了，我们必须前进。我们的人已经被巨魔围困多时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒步矿场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们伟大的陛下委托你打通一条安全通道，击败敌人大军。请将军务必完成！陛下的皇家队伍将会加入你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨雷戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军！我们需要你，敌军大肆进攻，你必须消灭他们！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴云寺院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战锤要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵达暴云寺院使我们这些天来最美妙的事情！这里的魔法师帮我们打开一道通往战锤要塞的传送门。不过在他们施法期间，我们一定要保护好他们。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国的守护者！我们再一次需要你的帮助！邪恶大军正在攻打我们的古代堡垒。统率王师，保护我们吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们又收到一个坏消息！帕格拉斯镇正遭受敌人压倒性军力的包围！这是公开宣战！王国生死存亡的战争开始了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠之鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趁着战况混乱，邪恶之军的领头从战锤逃跑，请拖住他们逃跑的步伐！瓦拉杜勒的哨岗正在抵抗他们，我们必须即刻出发，支援哨岗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃之地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们已经抵达这片贫瘠凄凉的大地，死去的悲惨灵魂无法得到安息，祈求神明，保佑我们的王国！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜牙沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在通往敌军城堡的路上，几乎找不到比恶心的沼泽更加污秽的地方了。腐烂的水池随时有危险！请将军务必小心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤你的部队！将军！黑暗力量再度崛起，我们必须采取行动！探子汇报称森林的中央打开了一扇通往地狱的传送门。死者在此无法安息，植物也会对进入者攻击。你必须带领军队进入其中，找到原因。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真菌森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信鹰从腐朽森林带来了消息。整座森林仍被邪恶腐蚀。新的黑暗力量正在崛起，试图将势力范围扩展到森林以外的区域。赶快行动吧，将军！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凄凉山谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要离开这个黑暗之地，但要穿越凄凉的山谷可不容易。虽然我们人困马乏，但心中仍然充满崇高的目标。要小心，这里到处都是岩石和火焰泰坦，最好别惊扰到他们！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猩红山谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时离开黑暗之地，我们到达猩红山谷，在此地建立营地稍作休整。丛林之地存在更多未知的威胁，请将军不要掉以轻心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断腾大桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失落丛林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛林变得越来越危险。士兵们有种感觉，仿佛在被某种不属于这个世界的东西追捕着！然而对抗邪恶之军的计划只是催促我们尽快阻止他们的行军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候部队来报，邪恶之军正在逃往扎个龙河附近的马克瓦尔可城，此处是唯一的路线。大桥已经被他们破坏。我们的行军更加困难了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克瓦尔可城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你面前的就是马克瓦尔可城，是食人部落的家园。为了追踪我们的死敌，必须穿过城市周围重军把守的敌人部队。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨克拉神庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们把敌军包围了！这将是他们的葬身之地！邪恶之军与当地的邪恶部族结合汇聚成有史以来最恐怖的邪恶大军！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下迷宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神庙看来只是通往一个直接在山石上挖出的巨大地下迷宫的入口！有传说警告我们，这里有难以名状的邪恶！我们必须深入迷宫，不能半途而废！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余烬深渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了王国！我们与邪恶之军的决战即将到来！世界的命运就承载在你的肩上！只有你能担此重任！为了王国！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗之塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的部队围住了邪恶的黑暗之塔，该把账好好算一算了。展开最后决战的时候就要到了！这是保卫王国的大战，我们已经没有退路！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亵渎森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽的黑暗，没有思维的恶魔在大地徘徊，四处捕食人类。我们的国王命令你保护手无寸铁的村民！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管我们取得巨大的胜利，但回程的路上依旧有很多邪恶势力需要清算。我们的部队已经集结完毕，等候您的差遣！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙中绿洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳泽鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里地形复杂，士兵们都很紧张。并不是因为我们见到的敌人，我们的人能应付得来。将军小心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望沙丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们必须穿过危险的绝望沙丘。没时间绕路了，当心脚下的流沙，那里面好像藏着神秘的怪兽，夺走无数探险家的性命！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离我们征途的结束还有一段距离，请士兵们振奋起来！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这将是将军的最后一战，陛下将给予您巨大的封赏，快速解决这一战！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海龟港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗老巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game/Map/Map_5</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_6</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_7</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_8</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_9</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_10</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_11</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_12</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_13</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_14</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_15</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_16</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_17</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_18</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_19</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_20</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_21</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_22</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_23</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_24</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_25</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_26</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_27</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_28</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_29</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_30</t>
-  </si>
-  <si>
-    <t>南港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，尊贵的战士！作为陛下的将军，国王需要你的帮助。南港居民报告称受到拦路强盗和其他不法歹徒的攻击。请你部署方案，支援城镇防御！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郊原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干得好！你的调查表明，这并非单纯出没在港口的土匪，而是哥布林族有组织的攻击！现在，我们必须迅速建立起有效的防御工事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕格拉斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银橡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数日行军之后，要塞的驻军承受了好几轮攻击，探子传来报告，一波更加庞大的敌军正在逼近。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城堡之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们抵达了首都利尼威亚，决战的时刻就要来临！我们逼定誓死保卫南门城墙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰风隘口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这群山之中，没有比冰风隘口更寒冷的地方了，我们必须前进。我们的人已经被巨魔围困多时。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒步矿场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们伟大的陛下委托你打通一条安全通道，击败敌人大军。请将军务必完成！陛下的皇家队伍将会加入你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨雷戈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将军！我们需要你，敌军大肆进攻，你必须消灭他们！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴云寺院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战锤要塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵达暴云寺院使我们这些天来最美妙的事情！这里的魔法师帮我们打开一道通往战锤要塞的传送门。不过在他们施法期间，我们一定要保护好他们。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王国的守护者！我们再一次需要你的帮助！邪恶大军正在攻打我们的古代堡垒。统率王师，保护我们吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们又收到一个坏消息！帕格拉斯镇正遭受敌人压倒性军力的包围！这是公开宣战！王国生死存亡的战争开始了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠之鹰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趁着战况混乱，邪恶之军的领头从战锤逃跑，请拖住他们逃跑的步伐！瓦拉杜勒的哨岗正在抵抗他们，我们必须即刻出发，支援哨岗！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃之地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们已经抵达这片贫瘠凄凉的大地，死去的悲惨灵魂无法得到安息，祈求神明，保佑我们的王国！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜牙沼泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在通往敌军城堡的路上，几乎找不到比恶心的沼泽更加污秽的地方了。腐烂的水池随时有危险！请将军务必小心！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤你的部队！将军！黑暗力量再度崛起，我们必须采取行动！探子汇报称森林的中央打开了一扇通往地狱的传送门。死者在此无法安息，植物也会对进入者攻击。你必须带领军队进入其中，找到原因。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真菌森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信鹰从腐朽森林带来了消息。整座森林仍被邪恶腐蚀。新的黑暗力量正在崛起，试图将势力范围扩展到森林以外的区域。赶快行动吧，将军！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凄凉山谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们需要离开这个黑暗之地，但要穿越凄凉的山谷可不容易。虽然我们人困马乏，但心中仍然充满崇高的目标。要小心，这里到处都是岩石和火焰泰坦，最好别惊扰到他们！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猩红山谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时离开黑暗之地，我们到达猩红山谷，在此地建立营地稍作休整。丛林之地存在更多未知的威胁，请将军不要掉以轻心！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断腾大桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失落丛林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丛林变得越来越危险。士兵们有种感觉，仿佛在被某种不属于这个世界的东西追捕着！然而对抗邪恶之军的计划只是催促我们尽快阻止他们的行军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斥候部队来报，邪恶之军正在逃往扎个龙河附近的马克瓦尔可城，此处是唯一的路线。大桥已经被他们破坏。我们的行军更加困难了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马克瓦尔可城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你面前的就是马克瓦尔可城，是食人部落的家园。为了追踪我们的死敌，必须穿过城市周围重军把守的敌人部队。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨克拉神庙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们把敌军包围了！这将是他们的葬身之地！邪恶之军与当地的邪恶部族结合汇聚成有史以来最恐怖的邪恶大军！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下迷宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神庙看来只是通往一个直接在山石上挖出的巨大地下迷宫的入口！有传说警告我们，这里有难以名状的邪恶！我们必须深入迷宫，不能半途而废！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余烬深渊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了王国！我们与邪恶之军的决战即将到来！世界的命运就承载在你的肩上！只有你能担此重任！为了王国！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗之塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们的部队围住了邪恶的黑暗之塔，该把账好好算一算了。展开最后决战的时候就要到了！这是保卫王国的大战，我们已经没有退路！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亵渎森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽的黑暗，没有思维的恶魔在大地徘徊，四处捕食人类。我们的国王命令你保护手无寸铁的村民！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尽管我们取得巨大的胜利，但回程的路上依旧有很多邪恶势力需要清算。我们的部队已经集结完毕，等候您的差遣！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙中绿洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳泽鲁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里地形复杂，士兵们都很紧张。并不是因为我们见到的敌人，我们的人能应付得来。将军小心！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝望沙丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们必须穿过危险的绝望沙丘。没时间绕路了，当心脚下的流沙，那里面好像藏着神秘的怪兽，夺走无数探险家的性命！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离我们征途的结束还有一段距离，请士兵们振奋起来！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这将是将军的最后一战，陛下将给予您巨大的封赏，快速解决这一战！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海龟港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗老巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA73EB-D29B-47B0-9B5C-C8D0A958C19A}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1"/>
     </row>
@@ -993,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1002,13 +1002,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -1016,129 +1016,129 @@
     </row>
     <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>4</v>
@@ -1146,25 +1146,25 @@
     </row>
     <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>4</v>
@@ -1172,25 +1172,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>4</v>
@@ -1198,25 +1198,25 @@
     </row>
     <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>4</v>
@@ -1224,25 +1224,25 @@
     </row>
     <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>4</v>
@@ -1250,25 +1250,25 @@
     </row>
     <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>4</v>
@@ -1276,25 +1276,25 @@
     </row>
     <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>4</v>
@@ -1302,25 +1302,25 @@
     </row>
     <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>4</v>
@@ -1328,25 +1328,25 @@
     </row>
     <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>4</v>
@@ -1354,25 +1354,25 @@
     </row>
     <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>4</v>
@@ -1380,25 +1380,25 @@
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>4</v>
@@ -1406,25 +1406,25 @@
     </row>
     <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>4</v>
@@ -1432,25 +1432,25 @@
     </row>
     <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>4</v>
@@ -1458,25 +1458,25 @@
     </row>
     <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>4</v>
@@ -1484,25 +1484,25 @@
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>4</v>
@@ -1510,25 +1510,25 @@
     </row>
     <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>4</v>
@@ -1536,25 +1536,25 @@
     </row>
     <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>4</v>
@@ -1562,25 +1562,25 @@
     </row>
     <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>4</v>
@@ -1588,25 +1588,25 @@
     </row>
     <row r="25" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>4</v>
@@ -1614,25 +1614,25 @@
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>4</v>
@@ -1640,25 +1640,25 @@
     </row>
     <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>4</v>
@@ -1666,25 +1666,25 @@
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>4</v>
@@ -1692,25 +1692,25 @@
     </row>
     <row r="29" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>4</v>
@@ -1718,25 +1718,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>4</v>
@@ -1744,25 +1744,25 @@
     </row>
     <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>4</v>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF99E32-5A7D-46DC-951B-A33EA5AD6256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C332F-251A-4368-B79C-BC4A2DABAF1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="160">
   <si>
     <t>levelID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +538,78 @@
   </si>
   <si>
     <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,20 +1010,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA73EB-D29B-47B0-9B5C-C8D0A958C19A}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="61.21875" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="50.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,22 +1061,22 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -1019,74 +1087,74 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>142</v>
@@ -1094,678 +1162,678 @@
     </row>
     <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>4</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01C332F-251A-4368-B79C-BC4A2DABAF1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826819A-B266-4917-9647-DED714889D67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
@@ -573,10 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,6 +606,10 @@
   </si>
   <si>
     <t>650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA73EB-D29B-47B0-9B5C-C8D0A958C19A}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>140</v>
@@ -1093,7 +1093,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>140</v>
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>140</v>
@@ -1171,7 +1171,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>140</v>
@@ -1197,7 +1197,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>140</v>
@@ -1327,7 +1327,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>140</v>
@@ -1353,7 +1353,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>140</v>
@@ -1431,7 +1431,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>140</v>
@@ -1457,7 +1457,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>140</v>
@@ -1535,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>140</v>
@@ -1561,7 +1561,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>140</v>
@@ -1613,7 +1613,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>140</v>
@@ -1639,7 +1639,7 @@
         <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>140</v>
@@ -1665,7 +1665,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>140</v>
@@ -1691,7 +1691,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>140</v>
@@ -1717,7 +1717,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>140</v>
@@ -1743,7 +1743,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>140</v>
@@ -1769,7 +1769,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>140</v>
@@ -1821,7 +1821,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>140</v>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826819A-B266-4917-9647-DED714889D67}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C8015-5579-4380-851D-1D1602CBF299}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
   <si>
     <t>levelID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,401 +215,398 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Game/Map/Map_6</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_7</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_8</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_9</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_10</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_11</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_12</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_13</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_14</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_15</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_16</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_17</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_18</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_19</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_20</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_21</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_22</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_23</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_24</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_25</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_26</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_27</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_28</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_29</t>
+  </si>
+  <si>
+    <t>Game/Map/Map_30</t>
+  </si>
+  <si>
+    <t>南港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好，尊贵的战士！作为陛下的将军，国王需要你的帮助。南港居民报告称受到拦路强盗和其他不法歹徒的攻击。请你部署方案，支援城镇防御！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郊原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干得好！你的调查表明，这并非单纯出没在港口的土匪，而是哥布林族有组织的攻击！现在，我们必须迅速建立起有效的防御工事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕格拉斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银橡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数日行军之后，要塞的驻军承受了好几轮攻击，探子传来报告，一波更加庞大的敌军正在逼近。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城堡之战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们抵达了首都利尼威亚，决战的时刻就要来临！我们逼定誓死保卫南门城墙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰风隘口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这群山之中，没有比冰风隘口更寒冷的地方了，我们必须前进。我们的人已经被巨魔围困多时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒步矿场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们伟大的陛下委托你打通一条安全通道，击败敌人大军。请将军务必完成！陛下的皇家队伍将会加入你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨雷戈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将军！我们需要你，敌军大肆进攻，你必须消灭他们！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴云寺院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战锤要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵达暴云寺院使我们这些天来最美妙的事情！这里的魔法师帮我们打开一道通往战锤要塞的传送门。不过在他们施法期间，我们一定要保护好他们。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王国的守护者！我们再一次需要你的帮助！邪恶大军正在攻打我们的古代堡垒。统率王师，保护我们吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们又收到一个坏消息！帕格拉斯镇正遭受敌人压倒性军力的包围！这是公开宣战！王国生死存亡的战争开始了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙漠之鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趁着战况混乱，邪恶之军的领头从战锤逃跑，请拖住他们逃跑的步伐！瓦拉杜勒的哨岗正在抵抗他们，我们必须即刻出发，支援哨岗！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃之地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们已经抵达这片贫瘠凄凉的大地，死去的悲惨灵魂无法得到安息，祈求神明，保佑我们的王国！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜牙沼泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在通往敌军城堡的路上，几乎找不到比恶心的沼泽更加污秽的地方了。腐烂的水池随时有危险！请将军务必小心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤你的部队！将军！黑暗力量再度崛起，我们必须采取行动！探子汇报称森林的中央打开了一扇通往地狱的传送门。死者在此无法安息，植物也会对进入者攻击。你必须带领军队进入其中，找到原因。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真菌森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信鹰从腐朽森林带来了消息。整座森林仍被邪恶腐蚀。新的黑暗力量正在崛起，试图将势力范围扩展到森林以外的区域。赶快行动吧，将军！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凄凉山谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要离开这个黑暗之地，但要穿越凄凉的山谷可不容易。虽然我们人困马乏，但心中仍然充满崇高的目标。要小心，这里到处都是岩石和火焰泰坦，最好别惊扰到他们！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猩红山谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时离开黑暗之地，我们到达猩红山谷，在此地建立营地稍作休整。丛林之地存在更多未知的威胁，请将军不要掉以轻心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断腾大桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失落丛林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丛林变得越来越危险。士兵们有种感觉，仿佛在被某种不属于这个世界的东西追捕着！然而对抗邪恶之军的计划只是催促我们尽快阻止他们的行军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候部队来报，邪恶之军正在逃往扎个龙河附近的马克瓦尔可城，此处是唯一的路线。大桥已经被他们破坏。我们的行军更加困难了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马克瓦尔可城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你面前的就是马克瓦尔可城，是食人部落的家园。为了追踪我们的死敌，必须穿过城市周围重军把守的敌人部队。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨克拉神庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们把敌军包围了！这将是他们的葬身之地！邪恶之军与当地的邪恶部族结合汇聚成有史以来最恐怖的邪恶大军！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下迷宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神庙看来只是通往一个直接在山石上挖出的巨大地下迷宫的入口！有传说警告我们，这里有难以名状的邪恶！我们必须深入迷宫，不能半途而废！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余烬深渊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了王国！我们与邪恶之军的决战即将到来！世界的命运就承载在你的肩上！只有你能担此重任！为了王国！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗之塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的部队围住了邪恶的黑暗之塔，该把账好好算一算了。展开最后决战的时候就要到了！这是保卫王国的大战，我们已经没有退路！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亵渎森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽的黑暗，没有思维的恶魔在大地徘徊，四处捕食人类。我们的国王命令你保护手无寸铁的村民！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管我们取得巨大的胜利，但回程的路上依旧有很多邪恶势力需要清算。我们的部队已经集结完毕，等候您的差遣！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙中绿洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳泽鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里地形复杂，士兵们都很紧张。并不是因为我们见到的敌人，我们的人能应付得来。将军小心！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝望沙丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们必须穿过危险的绝望沙丘。没时间绕路了，当心脚下的流沙，那里面好像藏着神秘的怪兽，夺走无数探险家的性命！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离我们征途的结束还有一段距离，请士兵们振奋起来！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这将是将军的最后一战，陛下将给予您巨大的封赏，快速解决这一战！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海龟港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海盗老巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Game/Map/Map_5</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_6</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_7</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_8</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_9</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_10</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_11</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_12</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_13</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_14</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_15</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_16</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_17</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_18</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_19</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_20</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_21</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_22</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_23</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_24</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_25</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_26</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_27</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_28</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_29</t>
-  </si>
-  <si>
-    <t>Game/Map/Map_30</t>
-  </si>
-  <si>
-    <t>南港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你好，尊贵的战士！作为陛下的将军，国王需要你的帮助。南港居民报告称受到拦路强盗和其他不法歹徒的攻击。请你部署方案，支援城镇防御！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郊原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干得好！你的调查表明，这并非单纯出没在港口的土匪，而是哥布林族有组织的攻击！现在，我们必须迅速建立起有效的防御工事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帕格拉斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银橡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数日行军之后，要塞的驻军承受了好几轮攻击，探子传来报告，一波更加庞大的敌军正在逼近。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城堡之战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们抵达了首都利尼威亚，决战的时刻就要来临！我们逼定誓死保卫南门城墙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰风隘口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这群山之中，没有比冰风隘口更寒冷的地方了，我们必须前进。我们的人已经被巨魔围困多时。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒步矿场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们伟大的陛下委托你打通一条安全通道，击败敌人大军。请将军务必完成！陛下的皇家队伍将会加入你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨雷戈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将军！我们需要你，敌军大肆进攻，你必须消灭他们！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴云寺院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战锤要塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抵达暴云寺院使我们这些天来最美妙的事情！这里的魔法师帮我们打开一道通往战锤要塞的传送门。不过在他们施法期间，我们一定要保护好他们。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王国的守护者！我们再一次需要你的帮助！邪恶大军正在攻打我们的古代堡垒。统率王师，保护我们吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们又收到一个坏消息！帕格拉斯镇正遭受敌人压倒性军力的包围！这是公开宣战！王国生死存亡的战争开始了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙漠之鹰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趁着战况混乱，邪恶之军的领头从战锤逃跑，请拖住他们逃跑的步伐！瓦拉杜勒的哨岗正在抵抗他们，我们必须即刻出发，支援哨岗！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃之地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们已经抵达这片贫瘠凄凉的大地，死去的悲惨灵魂无法得到安息，祈求神明，保佑我们的王国！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜牙沼泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在通往敌军城堡的路上，几乎找不到比恶心的沼泽更加污秽的地方了。腐烂的水池随时有危险！请将军务必小心！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤你的部队！将军！黑暗力量再度崛起，我们必须采取行动！探子汇报称森林的中央打开了一扇通往地狱的传送门。死者在此无法安息，植物也会对进入者攻击。你必须带领军队进入其中，找到原因。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真菌森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信鹰从腐朽森林带来了消息。整座森林仍被邪恶腐蚀。新的黑暗力量正在崛起，试图将势力范围扩展到森林以外的区域。赶快行动吧，将军！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凄凉山谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们需要离开这个黑暗之地，但要穿越凄凉的山谷可不容易。虽然我们人困马乏，但心中仍然充满崇高的目标。要小心，这里到处都是岩石和火焰泰坦，最好别惊扰到他们！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猩红山谷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时离开黑暗之地，我们到达猩红山谷，在此地建立营地稍作休整。丛林之地存在更多未知的威胁，请将军不要掉以轻心！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断腾大桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失落丛林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丛林变得越来越危险。士兵们有种感觉，仿佛在被某种不属于这个世界的东西追捕着！然而对抗邪恶之军的计划只是催促我们尽快阻止他们的行军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斥候部队来报，邪恶之军正在逃往扎个龙河附近的马克瓦尔可城，此处是唯一的路线。大桥已经被他们破坏。我们的行军更加困难了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马克瓦尔可城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你面前的就是马克瓦尔可城，是食人部落的家园。为了追踪我们的死敌，必须穿过城市周围重军把守的敌人部队。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨克拉神庙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们把敌军包围了！这将是他们的葬身之地！邪恶之军与当地的邪恶部族结合汇聚成有史以来最恐怖的邪恶大军！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下迷宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神庙看来只是通往一个直接在山石上挖出的巨大地下迷宫的入口！有传说警告我们，这里有难以名状的邪恶！我们必须深入迷宫，不能半途而废！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余烬深渊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了王国！我们与邪恶之军的决战即将到来！世界的命运就承载在你的肩上！只有你能担此重任！为了王国！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗之塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们的部队围住了邪恶的黑暗之塔，该把账好好算一算了。展开最后决战的时候就要到了！这是保卫王国的大战，我们已经没有退路！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亵渎森林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无尽的黑暗，没有思维的恶魔在大地徘徊，四处捕食人类。我们的国王命令你保护手无寸铁的村民！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尽管我们取得巨大的胜利，但回程的路上依旧有很多邪恶势力需要清算。我们的部队已经集结完毕，等候您的差遣！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙中绿洲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳泽鲁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里地形复杂，士兵们都很紧张。并不是因为我们见到的敌人，我们的人能应付得来。将军小心！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝望沙丘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们必须穿过危险的绝望沙丘。没时间绕路了，当心脚下的流沙，那里面好像藏着神秘的怪兽，夺走无数探险家的性命！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离我们征途的结束还有一段距离，请士兵们振奋起来！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这将是将军的最后一战，陛下将给予您巨大的封赏，快速解决这一战！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海龟港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海盗老巢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>850</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>950</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1008,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1061,19 +1058,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
@@ -1087,19 +1084,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -1113,7 +1110,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -1122,16 +1119,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1139,25 +1136,25 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1165,25 +1162,25 @@
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1191,25 +1188,25 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1217,7 +1214,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>50</v>
@@ -1226,16 +1223,16 @@
         <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1243,7 +1240,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>50</v>
@@ -1252,16 +1249,16 @@
         <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>50</v>
@@ -1278,16 +1275,16 @@
         <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1295,7 +1292,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>50</v>
@@ -1304,16 +1301,16 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1321,25 +1318,25 @@
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1347,25 +1344,25 @@
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1373,7 +1370,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>51</v>
@@ -1382,16 +1379,16 @@
         <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1399,7 +1396,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>51</v>
@@ -1408,16 +1405,16 @@
         <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1425,25 +1422,25 @@
         <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -1451,25 +1448,25 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1477,7 +1474,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>51</v>
@@ -1486,16 +1483,16 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1503,7 +1500,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>51</v>
@@ -1512,16 +1509,16 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -1529,25 +1526,25 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1555,25 +1552,25 @@
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1581,7 +1578,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>52</v>
@@ -1590,16 +1587,16 @@
         <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -1607,25 +1604,25 @@
         <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1633,25 +1630,25 @@
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1659,25 +1656,25 @@
         <v>43</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1685,25 +1682,25 @@
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1711,25 +1708,25 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1737,25 +1734,25 @@
         <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1763,25 +1760,25 @@
         <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1789,7 +1786,7 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>52</v>
@@ -1798,16 +1795,16 @@
         <v>53</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1815,25 +1812,25 @@
         <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelInfo.xlsx
+++ b/Excel/LevelInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGraduation\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8C8015-5579-4380-851D-1D1602CBF299}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10A83C2-8DC6-4B4D-BD94-2A8EE079E6D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{1E3CC6C3-889D-469C-82BC-6BD037CA378D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="158">
   <si>
     <t>levelID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -606,7 +602,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,8</t>
+    <t>1,2,3,4,5,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1064,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>139</v>
@@ -1090,7 +1086,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>139</v>
@@ -1142,7 +1138,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>139</v>
@@ -1154,7 +1150,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1168,7 +1164,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>139</v>
@@ -1177,10 +1173,10 @@
         <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1194,7 +1190,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>139</v>
@@ -1206,7 +1202,7 @@
         <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1232,7 +1228,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1258,7 +1254,7 @@
         <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1284,7 +1280,7 @@
         <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1310,7 +1306,7 @@
         <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1324,7 +1320,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>139</v>
@@ -1336,7 +1332,7 @@
         <v>59</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1350,7 +1346,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>139</v>
@@ -1362,7 +1358,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -1388,7 +1384,7 @@
         <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1414,7 +1410,7 @@
         <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
@@ -1428,7 +1424,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>139</v>
@@ -1440,7 +1436,7 @@
         <v>63</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -1454,7 +1450,7 @@
         <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>139</v>
@@ -1466,7 +1462,7 @@
         <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1492,7 +1488,7 @@
         <v>65</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1518,7 +1514,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -1532,7 +1528,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>139</v>
@@ -1544,7 +1540,7 @@
         <v>67</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1558,7 +1554,7 @@
         <v>51</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>139</v>
@@ -1570,7 +1566,7 @@
         <v>68</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1596,7 +1592,7 @@
         <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
@@ -1610,7 +1606,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>139</v>
@@ -1622,7 +1618,7 @@
         <v>70</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1636,7 +1632,7 @@
         <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>139</v>
@@ -1648,7 +1644,7 @@
         <v>71</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1662,7 +1658,7 @@
         <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>139</v>
@@ -1674,7 +1670,7 @@
         <v>72</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1688,7 +1684,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>139</v>
@@ -1700,7 +1696,7 @@
         <v>73</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1714,7 +1710,7 @@
         <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>139</v>
@@ -1726,7 +1722,7 @@
         <v>74</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1740,7 +1736,7 @@
         <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>139</v>
@@ -1752,7 +1748,7 @@
         <v>75</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1766,7 +1762,7 @@
         <v>52</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>139</v>
@@ -1778,7 +1774,7 @@
         <v>76</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1804,7 +1800,7 @@
         <v>77</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
@@ -1818,7 +1814,7 @@
         <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>139</v>
@@ -1830,7 +1826,7 @@
         <v>78</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
